--- a/Data Collection/Authors/Jürg Halter/Halter_all_2021.xlsx
+++ b/Data Collection/Authors/Jürg Halter/Halter_all_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\Data Collection\Authors\Jürg Halter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Jürg Halter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520AB8C7-16FA-48F5-BFE2-7A54F43A3E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{520AB8C7-16FA-48F5-BFE2-7A54F43A3E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{666754FB-5B21-4716-94CE-CDFF6235D344}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
   <si>
     <t>title</t>
   </si>
@@ -36,18 +36,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -57,16 +51,10 @@
     <t>Beobachter</t>
   </si>
   <si>
-    <t>14 Jan 2021</t>
-  </si>
-  <si>
     <t>Schriftsteller Jürg Halter in Bern. Bild: Hanna Jaray.</t>
   </si>
   <si>
     <t>https://www.beobachter.ch/gesellschaft/kultur-chamaleon-jurg-halter-auf-der-buhne-habe-ich-nie-angst-im-leben-schon</t>
-  </si>
-  <si>
-    <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///////yH5BAEKAAEALAAAAAABAAEAAAICTAEAOw==</t>
   </si>
   <si>
     <t>Aus deinem Pullover ziehst du einen Faden; / er nimmt kein Ende, / so bemerkst du nicht, wie du bald / mit halb nacktem Oberkörper vor dem Kellner sitzt, / ziehst einfach weiter, bis nichts mehr / als ein roter Faden übrig ist: / Der Kellner nimmt ihn auf, / beginnt eine Decke zu stricken, / um dir diese beiläufig umzulegen, / während er höflich fragt, / ob du noch was begehrst, / ja, gerne, was Kühles, antwortest du, / es sei etwas warm geworden, hier drinnen.
@@ -77,9 +65,6 @@
   </si>
   <si>
     <t>persoenlich.com</t>
-  </si>
-  <si>
-    <t>13 Jan 2021</t>
   </si>
   <si>
     <t>... werden Romane von George Orwell, Ayad Akhtar, Elvira Dones und Ottessa Moshfegh diskutiert. Zu Gast ist der Schweizer Dichter und Musiker Jürg Halter.</t>
@@ -101,9 +86,6 @@
     <t>St. Galler Tagblatt</t>
   </si>
   <si>
-    <t>26 Jan 2021</t>
-  </si>
-  <si>
     <t>Als Kutti MC rappte Jürg Halter mit seinem Vorbild Endo Anaconda und ist Twitter-Aktivist. Sein neuer Gedichtband «Gemeinsame Sprache» ist virtuose ...</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Deutschlandfunk Kultur</t>
   </si>
   <si>
-    <t>20 Jan 2021</t>
-  </si>
-  <si>
     <t>Ironie und Sentiment: Jürg Halters neue Poesie spannt einen Bogen von der politischen ... Dass sich Halter in seiner politischen wie amourösen Poesie stets ...</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>SRF</t>
   </si>
   <si>
-    <t>28 Jan 2021</t>
-  </si>
-  <si>
     <t>Literaturclub-Gast - Lyriker Jürg Halter: «Neben schweren Büchern braucht es Leichtes». Donnerstag, 28.01.2021, 02:18 Uhr ...</t>
   </si>
   <si>
@@ -183,9 +159,6 @@
     <t>Der Literaturclub empfiehlt – Lyrisches und Leichtsinn</t>
   </si>
   <si>
-    <t>27 Jan 2021</t>
-  </si>
-  <si>
     <t>Literaturclub-Gast Jürg Halter empfiehlt als Evergreen den Comic-Band über den dicken, faulen, sarkastischen Kater «Garfield» von Jim Davis. Für ihn ist es das ...</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>Blick</t>
   </si>
   <si>
-    <t>8 Feb 2021</t>
-  </si>
-  <si>
     <t>«Mir macht Angst, wie vergiftet wir kommunizieren». Jürg Halter (40), früher als Kutti MC bekannt, ist einer der schärfsten Beobachter unserer Gegenwart. Der ...</t>
   </si>
   <si>
@@ -281,9 +251,6 @@
     <t>Dlf</t>
   </si>
   <si>
-    <t>14 Feb 2021</t>
-  </si>
-  <si>
     <t>Und wenn's grad passt, krass unsicher und deep bescheiden“, twitterte der schweizerische Schriftsteller Jürg Halter entnervt im November 2019. Worüber er ...</t>
   </si>
   <si>
@@ -300,9 +267,6 @@
     <t>Coronavirus - «Der Anteil der Variante wird grösser – und es ...</t>
   </si>
   <si>
-    <t>11 Feb 2021</t>
-  </si>
-  <si>
     <t>Antwort von Thomas Halter (Thomas Halter) Donnerstag, 11. ... Zustimmen dem Kommentar zustimmen(114); Kommentar von Juerg Wyss (PandeMathiker) ...</t>
   </si>
   <si>
@@ -319,9 +283,6 @@
     <t>Index of /kultur</t>
   </si>
   <si>
-    <t>10 Feb 2021</t>
-  </si>
-  <si>
     <t>... 2020-10-27 13:08, -. [DIR], juerg-halter-die-menschheit-das-erfolgreichste-gescheiterte-projekt-aller-zeiten/, 2020-10-27 13:08, -. [DIR] ...</t>
   </si>
   <si>
@@ -347,9 +308,6 @@
     <t>Anna-Katharina Diener und die Kunst des Vorlesens</t>
   </si>
   <si>
-    <t>15 Feb 2021</t>
-  </si>
-  <si>
     <t>Schriftsteller Jürg Halter in Bern. Kultur-Chamäleon Jürg Halter. «Auf der Bühne habe ich nie Angst. Im Leben schon.» Jürg Halter passt in keine Schublade.</t>
   </si>
   <si>
@@ -369,9 +327,6 @@
     <t>Der Landbote</t>
   </si>
   <si>
-    <t>24 Feb 2021</t>
-  </si>
-  <si>
     <t>AboInterview mit Jürg Halter«Meine Gedichte passen zu einer Scheidungsparty». «Oh Miriam, flüsterte ich». AboDer erste Roman von Knausgård «Oh Miriam, ...</t>
   </si>
   <si>
@@ -388,9 +343,6 @@
     <t>Nach umstrittenem Tweet - FDP-Nationalräte fordern Parteiausschluss von Christine Kohli</t>
   </si>
   <si>
-    <t>22 Feb 2021</t>
-  </si>
-  <si>
     <t>Auf einen Tweet des Berner Schriftstellers Jürg Halter, der die Partei für die zurückhaltende Kritik nach Kohlis Tweet scharf kritisierte und schrieb, Kohli müsste ...</t>
   </si>
   <si>
@@ -410,9 +362,6 @@
     <t>NZZ Bellevue</t>
   </si>
   <si>
-    <t>23 Feb 2021</t>
-  </si>
-  <si>
     <t>«From pandemic to poodemic»: Wenn ein Haufen Hunde viele Hundehaufen machen. Jürg Zbinden; Entdecken; 23.2.2021. Die Zahl der Hundehalter hat ...</t>
   </si>
   <si>
@@ -429,9 +378,6 @@
     <t>TOGGENBURG-TICKER - Meldungen vom 11.Dezember bis 7.Februar | St.Galler Tagblatt</t>
   </si>
   <si>
-    <t>18 Feb 2021</t>
-  </si>
-  <si>
     <t>... in Gärten koten, ohne dass die Halterin oder der Halter die Hinterlassenschaft beseitigt. ... Jürg Forrer war während acht Jahren für das Ressort Infrastruktur ...</t>
   </si>
   <si>
@@ -451,9 +397,6 @@
     <t>Kulturmagazin frachtwerk</t>
   </si>
   <si>
-    <t>1 Mar 2021</t>
-  </si>
-  <si>
     <t>Dann kann Jürg Halter vielleicht deine Haltung diesbezüglich ändern und dich ... Wir lasen Jürg Halters Gedichte mit großem Plaisir und teilweise auch gern ...</t>
   </si>
   <si>
@@ -473,9 +416,6 @@
     <t>NZZ</t>
   </si>
   <si>
-    <t>3 Mar 2021</t>
-  </si>
-  <si>
     <t>Drei Disziplinen und zwei Kulturen treffen aufeinander: Uwe Wittwer und Jürg Halter lassen sich zusammen mit der japanischen Keramikerin Aiko Watanabe zu ...</t>
   </si>
   <si>
@@ -511,9 +451,6 @@
     <t>Design als Kulturgut: Es geht nicht ohne – und es ist überall</t>
   </si>
   <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
     <t>Jürg Zbinden 10.02.2021 ... und Jürg Halter lassen sich zusammen mit der japanischen Keramikerin Aiko Watanabe zu einem gemeinsamen Projekt inspirieren.</t>
   </si>
   <si>
@@ -565,9 +502,6 @@
 März 2019 - Mit Urs Halter kann Inventx, ein Schweizer IT-Dienstleister für die Finanzindustrie, einen erfahrenen Branchenfachmann für die Geschäftsleitung gewinnen.</t>
   </si>
   <si>
-    <t>2 weeks ago</t>
-  </si>
-  <si>
     <t>... Anna Rosenwasser und Jürg Halter unter der Moderation von Martin Meyer beim nächsten NZZ-Podium. Die Veranstaltung findet online statt, am Donnerstag, ...</t>
   </si>
   <si>
@@ -584,9 +518,6 @@
     <t>Autolenker fährt nach Unfall mit Traktor weiter</t>
   </si>
   <si>
-    <t>3 weeks ago</t>
-  </si>
-  <si>
     <t>Das Fahrzeug und der Halter konnten in der Folge ermittelt werden. ... Jacqueline GraberDer 4-jährige Hengst Tassilo mit Besitzer Jürg Schenk, Buttisholz LU.</t>
   </si>
   <si>
@@ -603,9 +534,6 @@
     <t>NZZ-Podium: Debatte über Cancel-Culture und Identitätspolitik</t>
   </si>
   <si>
-    <t>5 days ago</t>
-  </si>
-  <si>
     <t>Die Teilnehmer des NZZ Podiums (von links nach rechts): Anna Rosenwasser, Jürg Halter, Natascha Wey, Moderator Martin Meyer, Henryk M. Broder. Auf den ...</t>
   </si>
   <si>
@@ -625,13 +553,13 @@
     <t>Nau.ch</t>
   </si>
   <si>
-    <t>6 days ago</t>
-  </si>
-  <si>
     <t>Am Podiumsgespräch diskutieren Big Zis (Rapperin), Jürg Halter (Schriftsteller und Lyriker), Ursina Gabriela Roesch (Multimedia Konzept Künstlerin und FATart ...</t>
   </si>
   <si>
     <t>https://www.nau.ch/ort/zurich/zurich-mai-im-karl-der-grosse-65921439</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -639,7 +567,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -686,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -709,25 +637,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1010,26 +955,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1041,835 +986,722 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>44210</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>44216</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44224</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44223</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44223</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44235</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44241</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44238</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>68</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44237</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>81</v>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44237</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>73</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>89</v>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7">
+        <v>44251</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>106</v>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44250</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>91</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>111</v>
+      <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>98</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44256</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>123</v>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44258</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+        <v>105</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>117</v>
+      <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44256</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="3">
+        <v>103</v>
+      </c>
+      <c r="D25" s="7">
         <v>44298.866679400948</v>
       </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="3">
+        <v>117</v>
+      </c>
+      <c r="D26" s="7">
         <v>44298.866319826542</v>
       </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="8">
         <v>44298.866319849702</v>
       </c>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+        <v>124</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="8">
         <v>44314.866105346191</v>
       </c>
+      <c r="E28" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+        <v>127</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="B29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="8">
         <v>44307.866105357767</v>
       </c>
+      <c r="E29" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="3">
+        <v>103</v>
+      </c>
+      <c r="D30" s="7">
         <v>44323.865839902413</v>
       </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="3">
+        <v>138</v>
+      </c>
+      <c r="D31" s="7">
         <v>44322.865839913982</v>
       </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{380661B5-7D39-42E5-A1C1-C84B53B39D80}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{E9A308AC-0FA7-406F-A9FB-1AC1B0B90B42}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{DD7C740E-F5EA-4CB7-9652-6599DB43AEBF}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{03363959-8F3E-422D-BBAB-5D79D0E2F72F}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{7EEFED4B-667E-4B57-96E3-19656178AFF5}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{5E9ED873-2EBC-4083-9241-6C04BE6371AB}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{BBD166EB-E580-43D3-8989-91D298857525}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{386122BD-2C52-48BD-9D67-63D256B74F65}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{98856594-3B62-4098-A680-574E5595800A}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{10F36AE3-FEC1-4E07-8B39-0FFD47C1E178}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{97175A23-49B5-4B5B-9A54-DD61CCEA703A}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{1D04E2EC-C550-460B-B5D0-B4DCA6FFAD6F}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{3C15F140-4FE0-43AC-8D25-C7E7793BA372}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{23062F7F-05B6-40E5-A04C-539D69E571A8}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{3A8A8C9A-6DA8-4D44-9EE8-28C81948C323}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{C705059A-AD51-4F10-8EFD-78EA2715CC14}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{C7BE2E65-DF7F-4BF8-A5DC-FEE0F604E892}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{49A06331-B276-4D4F-BF23-2FC44E8003A5}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{9D5515B7-A7A4-4E7D-8876-5BD040656FF4}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{974C50C8-1978-476F-88AE-71025EB662FF}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{8ADB5BCD-D2ED-4143-8804-FF1080F22889}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{D3C02044-2DFD-4360-9B17-FC173D4C53E3}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{E1CBABB4-56E6-479A-BFB9-6C1DE771C3EC}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{64A223C7-B06F-498D-898A-9344494963F2}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{1A3AB900-779B-4F32-87E4-173CDC807143}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{2A652D81-9280-4983-A830-8FF61EB2E8C0}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{83D48BD7-5435-4A13-9006-250F582B84BC}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{3BB820E4-5B91-491B-ACA0-A7CABAD84FF8}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{3B7DD343-A596-4131-BF1F-0BC897A73478}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{B1BD20FE-9E8D-4AF7-811E-5D77E0B09EB4}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{380661B5-7D39-42E5-A1C1-C84B53B39D80}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{E9A308AC-0FA7-406F-A9FB-1AC1B0B90B42}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{DD7C740E-F5EA-4CB7-9652-6599DB43AEBF}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{03363959-8F3E-422D-BBAB-5D79D0E2F72F}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{7EEFED4B-667E-4B57-96E3-19656178AFF5}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{5E9ED873-2EBC-4083-9241-6C04BE6371AB}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{BBD166EB-E580-43D3-8989-91D298857525}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{386122BD-2C52-48BD-9D67-63D256B74F65}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{98856594-3B62-4098-A680-574E5595800A}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{10F36AE3-FEC1-4E07-8B39-0FFD47C1E178}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{97175A23-49B5-4B5B-9A54-DD61CCEA703A}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{1D04E2EC-C550-460B-B5D0-B4DCA6FFAD6F}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{3C15F140-4FE0-43AC-8D25-C7E7793BA372}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{23062F7F-05B6-40E5-A04C-539D69E571A8}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{3A8A8C9A-6DA8-4D44-9EE8-28C81948C323}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{C705059A-AD51-4F10-8EFD-78EA2715CC14}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{C7BE2E65-DF7F-4BF8-A5DC-FEE0F604E892}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{49A06331-B276-4D4F-BF23-2FC44E8003A5}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{9D5515B7-A7A4-4E7D-8876-5BD040656FF4}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{974C50C8-1978-476F-88AE-71025EB662FF}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{8ADB5BCD-D2ED-4143-8804-FF1080F22889}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{D3C02044-2DFD-4360-9B17-FC173D4C53E3}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{E1CBABB4-56E6-479A-BFB9-6C1DE771C3EC}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{64A223C7-B06F-498D-898A-9344494963F2}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{1A3AB900-779B-4F32-87E4-173CDC807143}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{2A652D81-9280-4983-A830-8FF61EB2E8C0}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{83D48BD7-5435-4A13-9006-250F582B84BC}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{3BB820E4-5B91-491B-ACA0-A7CABAD84FF8}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{3B7DD343-A596-4131-BF1F-0BC897A73478}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{B1BD20FE-9E8D-4AF7-811E-5D77E0B09EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>